--- a/benchMark_mutex.xlsx
+++ b/benchMark_mutex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">_x001d_usr</t>
+  </si>
+  <si>
+    <t>SPEEDRUN</t>
   </si>
   <si>
     <t>P\T</t>
@@ -521,6 +524,9 @@
   <si>
     <t xml:space="preserve">_x001d_usr (ms)</t>
   </si>
+  <si>
+    <t>_x0008_SPEEDRUN</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -763,6 +769,9 @@
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -822,6 +831,363 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Speedrun</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>dotprod_mutex!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dotprod_mutex!$B$37:$B$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>usr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>dotprod_mutex!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dotprod_mutex!$C$37:$C$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>dotprod_mutex!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dotprod_mutex!$D$37:$D$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1561191198"/>
+        <c:axId val="1355483646"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1561191198"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>COREs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1355483646"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1355483646"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1561191198"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -1029,11 +1395,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1991648197"/>
-        <c:axId val="113815071"/>
+        <c:axId val="999435970"/>
+        <c:axId val="1748964348"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1991648197"/>
+        <c:axId val="999435970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,10 +1451,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113815071"/>
+        <c:crossAx val="1748964348"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113815071"/>
+        <c:axId val="1748964348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1529,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1991648197"/>
+        <c:crossAx val="999435970"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1197,7 +1563,375 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Speedrun</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug6'!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug6'!$B$37:$B$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>usr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug6'!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug6'!$C$37:$C$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bug6'!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bug6'!$D$37:$D$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="471214205"/>
+        <c:axId val="2003358899"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="471214205"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>CORE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003358899"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2003358899"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471214205"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -1413,11 +2147,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1751307237"/>
-        <c:axId val="938063716"/>
+        <c:axId val="1741970538"/>
+        <c:axId val="1493902052"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1751307237"/>
+        <c:axId val="1741970538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,10 +2203,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938063716"/>
+        <c:crossAx val="1493902052"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="938063716"/>
+        <c:axId val="1493902052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +2281,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1751307237"/>
+        <c:crossAx val="1741970538"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1573,7 +2307,383 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Speedrun</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.03091666666666667"/>
+          <c:y val="0.052695417789757414"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>bug6fixed!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bug6fixed!$B$37:$B$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>usr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>bug6fixed!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bug6fixed!$C$37:$C$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>bug6fixed!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bug6fixed!$D$37:$D$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1469100310"/>
+        <c:axId val="891992634"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1469100310"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>CORE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="891992634"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="891992634"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469100310"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -1781,11 +2891,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="949948022"/>
-        <c:axId val="547125571"/>
+        <c:axId val="1969399012"/>
+        <c:axId val="1834086052"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="949948022"/>
+        <c:axId val="1969399012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,10 +2947,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547125571"/>
+        <c:crossAx val="1834086052"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547125571"/>
+        <c:axId val="1834086052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +3025,375 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="949948022"/>
+        <c:crossAx val="1969399012"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>SPEEDRUN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>arrayloops!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>arrayloops!$B$37:$B$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>usr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>arrayloops!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>arrayloops!$C$37:$C$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>sys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>arrayloops!$A$37:$A$40</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>arrayloops!$D$37:$D$40</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="529008982"/>
+        <c:axId val="1914939211"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="529008982"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>COREs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914939211"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1914939211"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529008982"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1942,23 +3420,15 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6315075" cy="3533775"/>
+    <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Biểu đồ"/>
@@ -1979,6 +3449,65 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6315075" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
@@ -1991,7 +3520,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Biểu đồ"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Biểu đồ"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2001,6 +3530,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2021,7 +3575,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Biểu đồ"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Biểu đồ"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2031,6 +3585,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7" title="Biểu đồ"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2243,7 +3822,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="12" max="12" width="35.5"/>
+    <col customWidth="1" min="12" max="12" width="64.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2995,6 +4574,93 @@
       </c>
       <c r="D32" s="26">
         <v>3.125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="26">
+        <f t="shared" ref="B37:D37" si="5"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" ref="B38:B40" si="6">19/B30</f>
+        <v>1.178294574</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" ref="C38:C40" si="7">7.875/C30</f>
+        <v>1.431818182</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" ref="D38:D40" si="8">3.375/D30</f>
+        <v>0.5869565217</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="6"/>
+        <v>1.169230769</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="7"/>
+        <v>1.575</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="8"/>
+        <v>0.4821428571</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="6"/>
+        <v>1.475728155</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="7"/>
+        <v>1.032786885</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="8"/>
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>
@@ -3030,31 +4696,31 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="27">
+      <c r="A2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="28">
         <v>1.0</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="28">
         <v>2.0</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="28">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>27</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3078,663 +4744,663 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="33"/>
       <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="22"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="37" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37">
+      <c r="A4" s="38">
         <v>1.0</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="39">
         <v>11.0</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>7.0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="39">
         <v>3.0</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="39">
+      <c r="F4" s="34"/>
+      <c r="G4" s="40">
         <v>1.0</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="39">
         <v>83.0</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="39">
         <v>6.0</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="39">
         <v>24.0</v>
       </c>
       <c r="L4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="37">
+      <c r="A5" s="38">
         <v>2.0</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="39">
         <v>12.0</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="39">
         <v>0.0</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39">
         <v>10.0</v>
       </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="39">
+      <c r="F5" s="34"/>
+      <c r="G5" s="40">
         <v>2.0</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="39">
         <v>21.0</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="39">
         <v>4.0</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="39">
         <v>4.0</v>
       </c>
       <c r="L5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="37">
+      <c r="A6" s="38">
         <v>3.0</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="39">
         <v>21.0</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="39">
         <v>6.0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="39">
         <v>6.0</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="39">
+      <c r="F6" s="34"/>
+      <c r="G6" s="40">
         <v>3.0</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="39">
         <v>17.0</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="39">
         <v>6.0</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="39">
         <v>3.0</v>
       </c>
       <c r="L6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="37">
+      <c r="A7" s="38">
         <v>4.0</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <v>9.0</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="39">
         <v>0.0</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="39">
         <v>9.0</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="39">
+      <c r="F7" s="34"/>
+      <c r="G7" s="40">
         <v>4.0</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="39">
         <v>15.0</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="39">
         <v>4.0</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="39">
         <v>4.0</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="37">
+      <c r="A8" s="38">
         <v>5.0</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="39">
         <v>9.0</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="39">
         <v>0.0</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="39">
         <v>9.0</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="39">
+      <c r="F8" s="34"/>
+      <c r="G8" s="40">
         <v>5.0</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="39">
         <v>12.0</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="39">
         <v>4.0</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="39">
         <v>4.0</v>
       </c>
       <c r="L8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="37">
+      <c r="A9" s="38">
         <v>6.0</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="39">
         <v>14.0</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="39">
         <v>0.0</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="39">
         <v>10.0</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="39">
+      <c r="F9" s="34"/>
+      <c r="G9" s="40">
         <v>6.0</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="39">
         <v>35.0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="39">
         <v>3.0</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="39">
         <v>8.0</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="37">
+      <c r="A10" s="38">
         <v>7.0</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="39">
         <v>24.0</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="39">
         <v>1.0</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="39">
         <v>9.0</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="39">
+      <c r="F10" s="34"/>
+      <c r="G10" s="40">
         <v>7.0</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="39">
         <v>7.0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="39">
         <v>0.0</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="39">
         <v>8.0</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="37">
+      <c r="A11" s="38">
         <v>8.0</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="39">
         <v>28.0</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="39">
         <v>4.0</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="39">
         <v>8.0</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="39">
+      <c r="F11" s="34"/>
+      <c r="G11" s="40">
         <v>8.0</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="39">
         <v>34.0</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="39">
         <v>0.0</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="39">
         <v>10.0</v>
       </c>
       <c r="L11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="40">
         <f t="shared" ref="B12:D12" si="1"> AVERAGE(B4:B11)</f>
         <v>16</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="40">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="40">
         <f t="shared" ref="H12:J12" si="2"> AVERAGE(H4:H11)</f>
         <v>28</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="40">
         <f t="shared" si="2"/>
         <v>3.375</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="40">
         <f t="shared" si="2"/>
         <v>8.125</v>
       </c>
       <c r="L12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="L13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="32"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
       <c r="L14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="37" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="37">
+      <c r="A16" s="38">
         <v>1.0</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="39">
         <v>22.0</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="39">
         <v>10.0</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="39">
         <v>0.0</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="39">
+      <c r="F16" s="34"/>
+      <c r="G16" s="40">
         <v>1.0</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="39">
         <v>28.0</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="39">
         <v>5.0</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="39">
         <v>10.0</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="37">
+      <c r="A17" s="38">
         <v>2.0</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="39">
         <v>18.0</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="39">
         <v>1.0</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="39">
         <v>13.0</v>
       </c>
       <c r="E17" s="22"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="39">
+      <c r="F17" s="34"/>
+      <c r="G17" s="40">
         <v>2.0</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="39">
         <v>17.0</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="39">
         <v>0.0</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="39">
         <v>9.0</v>
       </c>
       <c r="L17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="37">
+      <c r="A18" s="38">
         <v>3.0</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="39">
         <v>53.0</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="39">
         <v>0.0</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="39">
         <v>13.0</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="39">
+      <c r="F18" s="34"/>
+      <c r="G18" s="40">
         <v>3.0</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="39">
         <v>15.0</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="39">
         <v>2.0</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="39">
         <v>7.0</v>
       </c>
       <c r="L18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="37">
+      <c r="A19" s="38">
         <v>4.0</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="39">
         <v>14.0</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="39">
         <v>0.0</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="39">
         <v>8.0</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="39">
+      <c r="F19" s="34"/>
+      <c r="G19" s="40">
         <v>4.0</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="39">
         <v>20.0</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="39">
         <v>9.0</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="39">
         <v>0.0</v>
       </c>
       <c r="L19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="37">
+      <c r="A20" s="38">
         <v>5.0</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="39">
         <v>34.0</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="39">
         <v>0.0</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="39">
         <v>9.0</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="39">
+      <c r="F20" s="34"/>
+      <c r="G20" s="40">
         <v>5.0</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="39">
         <v>26.0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="39">
         <v>7.0</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="39">
         <v>11.0</v>
       </c>
       <c r="L20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="37">
+      <c r="A21" s="38">
         <v>6.0</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="39">
         <v>21.0</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="39">
         <v>5.0</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="39">
         <v>5.0</v>
       </c>
       <c r="E21" s="22"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="39">
+      <c r="F21" s="34"/>
+      <c r="G21" s="40">
         <v>6.0</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="39">
         <v>30.0</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="39">
         <v>3.0</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="39">
         <v>6.0</v>
       </c>
       <c r="L21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="37">
+      <c r="A22" s="38">
         <v>7.0</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="39">
         <v>26.0</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="39">
         <v>0.0</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="39">
         <v>20.0</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="39">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <v>7.0</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="39">
         <v>13.0</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="39">
         <v>0.0</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="39">
         <v>13.0</v>
       </c>
       <c r="L22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="37">
+      <c r="A23" s="38">
         <v>8.0</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="39">
         <v>18.0</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="39">
         <v>0.0</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="39">
         <v>8.0</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="39">
+      <c r="F23" s="34"/>
+      <c r="G23" s="40">
         <v>8.0</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="39">
         <v>15.0</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="39">
         <v>0.0</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="39">
         <v>12.0</v>
       </c>
       <c r="L23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="40">
         <f t="shared" ref="B24:D24" si="3"> AVERAGE(B16:B23)</f>
         <v>25.75</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="40">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="40">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="40">
         <f t="shared" ref="H24:J24" si="4"> AVERAGE(H16:H23)</f>
         <v>20.5</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="40">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="40">
         <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
@@ -3753,8 +5419,8 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="s">
-        <v>33</v>
+      <c r="A26" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -3765,7 +5431,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>21</v>
@@ -3831,6 +5497,90 @@
       </c>
       <c r="D32" s="26">
         <v>8.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" ref="B38:B40" si="5">16/B30</f>
+        <v>0.6213592233</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" ref="C38:C40" si="6">2.25/C30</f>
+        <v>1.125</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" ref="D38:D40" si="7">8/D30</f>
+        <v>0.8421052632</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="5"/>
+        <v>0.5714285714</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="6"/>
+        <v>0.6666666667</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="7"/>
+        <v>0.9846153846</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="5"/>
+        <v>0.7804878049</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="6"/>
+        <v>0.6923076923</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="7"/>
+        <v>0.9411764706</v>
       </c>
     </row>
   </sheetData>
@@ -3864,663 +5614,663 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="33"/>
       <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37">
+      <c r="A4" s="38">
         <v>1.0</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="39">
         <v>14.0</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>15.0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="39">
         <v>0.0</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="39">
+      <c r="F4" s="34"/>
+      <c r="G4" s="40">
         <v>1.0</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="39">
         <v>17.0</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="39">
         <v>10.0</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="39">
         <v>7.0</v>
       </c>
       <c r="L4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="37">
+      <c r="A5" s="38">
         <v>2.0</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="39">
         <v>35.0</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="39">
         <v>13.0</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39">
         <v>7.0</v>
       </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="39">
+      <c r="F5" s="34"/>
+      <c r="G5" s="40">
         <v>2.0</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="39">
         <v>33.0</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="39">
         <v>13.0</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="39">
         <v>4.0</v>
       </c>
       <c r="L5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="37">
+      <c r="A6" s="38">
         <v>3.0</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="39">
         <v>79.0</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="39">
         <v>10.0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="39">
         <v>10.0</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="39">
+      <c r="F6" s="34"/>
+      <c r="G6" s="40">
         <v>3.0</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="39">
         <v>15.0</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="39">
         <v>6.0</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="39">
         <v>10.0</v>
       </c>
       <c r="L6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="37">
+      <c r="A7" s="38">
         <v>4.0</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <v>37.0</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="39">
         <v>10.0</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="39">
         <v>9.0</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="39">
+      <c r="F7" s="34"/>
+      <c r="G7" s="40">
         <v>4.0</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="39">
         <v>37.0</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="39">
         <v>11.0</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="39">
         <v>11.0</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="37">
+      <c r="A8" s="38">
         <v>5.0</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="39">
         <v>64.0</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="39">
         <v>8.0</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="39">
         <v>13.0</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="39">
+      <c r="F8" s="34"/>
+      <c r="G8" s="40">
         <v>5.0</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="39">
         <v>29.0</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="39">
         <v>9.0</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="39">
         <v>9.0</v>
       </c>
       <c r="L8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="37">
+      <c r="A9" s="38">
         <v>6.0</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="39">
         <v>43.0</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="39">
         <v>11.0</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="39">
         <v>7.0</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="39">
+      <c r="F9" s="34"/>
+      <c r="G9" s="40">
         <v>6.0</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="39">
         <v>22.0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="39">
         <v>8.0</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="39">
         <v>9.0</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="37">
+      <c r="A10" s="38">
         <v>7.0</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="39">
         <v>18.0</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="39">
         <v>15.0</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="39">
         <v>0.0</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="39">
+      <c r="F10" s="34"/>
+      <c r="G10" s="40">
         <v>7.0</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="39">
         <v>22.0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="39">
         <v>4.0</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="39">
         <v>13.0</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="37">
+      <c r="A11" s="38">
         <v>8.0</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="39">
         <v>16.0</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="39">
         <v>12.0</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="39">
         <v>4.0</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="39">
+      <c r="F11" s="34"/>
+      <c r="G11" s="40">
         <v>8.0</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="39">
         <v>17.0</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="39">
         <v>7.0</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="39">
         <v>10.0</v>
       </c>
       <c r="L11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="40">
         <f t="shared" ref="B12:D12" si="1">AVERAGE(B4:B11)</f>
         <v>38.25</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="40">
         <f t="shared" si="1"/>
         <v>11.75</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="40">
         <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="40">
         <f t="shared" ref="H12:J12" si="2">AVERAGE(H4:H11)</f>
         <v>24</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="40">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="40">
         <f t="shared" si="2"/>
         <v>9.125</v>
       </c>
       <c r="L12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="L13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="32"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
       <c r="L14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="37">
+      <c r="A16" s="38">
         <v>1.0</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="39">
         <v>15.0</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="39">
         <v>16.0</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="39">
         <v>0.0</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="39">
+      <c r="F16" s="34"/>
+      <c r="G16" s="40">
         <v>1.0</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="39">
         <v>24.0</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="39">
         <v>8.0</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="39">
         <v>12.0</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="37">
+      <c r="A17" s="38">
         <v>2.0</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="39">
         <v>28.0</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="39">
         <v>8.0</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="39">
         <v>11.0</v>
       </c>
       <c r="E17" s="22"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="39">
+      <c r="F17" s="34"/>
+      <c r="G17" s="40">
         <v>2.0</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="39">
         <v>39.0</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="39">
         <v>7.0</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="39">
         <v>10.0</v>
       </c>
       <c r="L17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="37">
+      <c r="A18" s="38">
         <v>3.0</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="39">
         <v>25.0</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="39">
         <v>16.0</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="39">
         <v>4.0</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="39">
+      <c r="F18" s="34"/>
+      <c r="G18" s="40">
         <v>3.0</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="39">
         <v>16.0</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="39">
         <v>6.0</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="39">
         <v>10.0</v>
       </c>
       <c r="L18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="37">
+      <c r="A19" s="38">
         <v>4.0</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="39">
         <v>32.0</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="39">
         <v>9.0</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="39">
         <v>9.0</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="39">
+      <c r="F19" s="34"/>
+      <c r="G19" s="40">
         <v>4.0</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="39">
         <v>24.0</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="39">
         <v>14.0</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="39">
         <v>5.0</v>
       </c>
       <c r="L19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="37">
+      <c r="A20" s="38">
         <v>5.0</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="39">
         <v>21.0</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="39">
         <v>4.0</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="39">
         <v>13.0</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="39">
+      <c r="F20" s="34"/>
+      <c r="G20" s="40">
         <v>5.0</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="39">
         <v>15.0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="39">
         <v>16.0</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="39">
         <v>0.0</v>
       </c>
       <c r="L20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="37">
+      <c r="A21" s="38">
         <v>6.0</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="39">
         <v>50.0</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="39">
         <v>13.0</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="39">
         <v>4.0</v>
       </c>
       <c r="E21" s="22"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="39">
+      <c r="F21" s="34"/>
+      <c r="G21" s="40">
         <v>6.0</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="39">
         <v>16.0</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="39">
         <v>8.0</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="39">
         <v>8.0</v>
       </c>
       <c r="L21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="37">
+      <c r="A22" s="38">
         <v>7.0</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="39">
         <v>15.0</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="39">
         <v>15.0</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="39">
         <v>0.0</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="39">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <v>7.0</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="39">
         <v>19.0</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="39">
         <v>5.0</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="39">
         <v>13.0</v>
       </c>
       <c r="L22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="37">
+      <c r="A23" s="38">
         <v>8.0</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="39">
         <v>32.0</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="39">
         <v>10.0</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="39">
         <v>6.0</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="39">
+      <c r="F23" s="34"/>
+      <c r="G23" s="40">
         <v>8.0</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="39">
         <v>17.0</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="39">
         <v>17.0</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="39">
         <v>0.0</v>
       </c>
       <c r="L23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="40">
         <f t="shared" ref="B24:D24" si="3"> AVERAGE(B16:B23)</f>
         <v>27.25</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="40">
         <f t="shared" si="3"/>
         <v>11.375</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="40">
         <f t="shared" si="3"/>
         <v>5.875</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="40">
         <f t="shared" ref="H24:J24" si="4">AVERAGE(H16:H23)</f>
         <v>21.25</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="40">
         <f t="shared" si="4"/>
         <v>10.125</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="40">
         <f t="shared" si="4"/>
         <v>7.25</v>
       </c>
@@ -4539,8 +6289,8 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="s">
-        <v>40</v>
+      <c r="A26" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -4551,7 +6301,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>21</v>
@@ -4617,6 +6367,90 @@
       </c>
       <c r="D32" s="26">
         <v>7.25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" ref="B38:B40" si="5">38.25/B30</f>
+        <v>1.403669725</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" ref="C38:C40" si="6">11.75/C30</f>
+        <v>1.032967033</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" ref="D38:D40" si="7">6.25/D30</f>
+        <v>1.063829787</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="5"/>
+        <v>1.59375</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="6"/>
+        <v>1.382352941</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="7"/>
+        <v>0.6849315068</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="6"/>
+        <v>1.160493827</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="7"/>
+        <v>0.8620689655</v>
       </c>
     </row>
   </sheetData>
@@ -4650,663 +6484,663 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="33"/>
       <c r="L2" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37">
+      <c r="A4" s="38">
         <v>1.0</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="39">
         <v>31.0</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>18.0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="39">
         <v>0.0</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="39">
+      <c r="F4" s="34"/>
+      <c r="G4" s="40">
         <v>1.0</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="39">
         <v>20.0</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="39">
         <v>12.0</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="39">
         <v>8.0</v>
       </c>
       <c r="L4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="37">
+      <c r="A5" s="38">
         <v>2.0</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="39">
         <v>16.0</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="39">
         <v>16.0</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39">
         <v>3.0</v>
       </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="39">
+      <c r="F5" s="34"/>
+      <c r="G5" s="40">
         <v>2.0</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="39">
         <v>24.0</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="39">
         <v>15.0</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="39">
         <v>5.0</v>
       </c>
       <c r="L5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="37">
+      <c r="A6" s="38">
         <v>3.0</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="39">
         <v>22.0</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="39">
         <v>10.0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="39">
         <v>10.0</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="39">
+      <c r="F6" s="34"/>
+      <c r="G6" s="40">
         <v>3.0</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="39">
         <v>29.0</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="39">
         <v>14.0</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="39">
         <v>6.0</v>
       </c>
       <c r="L6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="37">
+      <c r="A7" s="38">
         <v>4.0</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="39">
         <v>23.0</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="39">
         <v>11.0</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="39">
         <v>11.0</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="39">
+      <c r="F7" s="34"/>
+      <c r="G7" s="40">
         <v>4.0</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="39">
         <v>31.0</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="39">
         <v>15.0</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="39">
         <v>5.0</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="37">
+      <c r="A8" s="38">
         <v>5.0</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="39">
         <v>25.0</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="39">
         <v>13.0</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="39">
         <v>13.0</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="39">
+      <c r="F8" s="34"/>
+      <c r="G8" s="40">
         <v>5.0</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="39">
         <v>21.0</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="39">
         <v>7.0</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="39">
         <v>14.0</v>
       </c>
       <c r="L8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="37">
+      <c r="A9" s="38">
         <v>6.0</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="39">
         <v>17.0</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="39">
         <v>15.0</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="39">
         <v>5.0</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="39">
+      <c r="F9" s="34"/>
+      <c r="G9" s="40">
         <v>6.0</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="39">
         <v>21.0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="39">
         <v>9.0</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="39">
         <v>13.0</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="37">
+      <c r="A10" s="38">
         <v>7.0</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="39">
         <v>15.0</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="39">
         <v>13.0</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="39">
         <v>7.0</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="39">
+      <c r="F10" s="34"/>
+      <c r="G10" s="40">
         <v>7.0</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="39">
         <v>30.0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="39">
         <v>14.0</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="39">
         <v>6.0</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="37">
+      <c r="A11" s="38">
         <v>8.0</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="39">
         <v>12.0</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="39">
         <v>13.0</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="39">
         <v>7.0</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="39">
+      <c r="F11" s="34"/>
+      <c r="G11" s="40">
         <v>8.0</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="39">
         <v>17.0</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="39">
         <v>8.0</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="39">
         <v>12.0</v>
       </c>
       <c r="L11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="40">
         <f t="shared" ref="B12:D12" si="1">AVERAGE(B4:B11)</f>
         <v>20.125</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="40">
         <f t="shared" si="1"/>
         <v>13.625</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="40">
         <f t="shared" ref="H12:J12" si="2">AVERAGE(H4:H11)</f>
         <v>24.125</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="40">
         <f t="shared" si="2"/>
         <v>11.75</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="40">
         <f t="shared" si="2"/>
         <v>8.625</v>
       </c>
       <c r="L12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="L13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="32"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
       <c r="L14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="44" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="37">
+      <c r="A16" s="38">
         <v>1.0</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="39">
         <v>21.0</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="39">
         <v>15.0</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="39">
         <v>8.0</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="39">
+      <c r="F16" s="34"/>
+      <c r="G16" s="40">
         <v>1.0</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="39">
         <v>15.0</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="39">
         <v>14.0</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="39">
         <v>7.0</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="37">
+      <c r="A17" s="38">
         <v>2.0</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="39">
         <v>15.0</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="39">
         <v>17.0</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="39">
         <v>3.0</v>
       </c>
       <c r="E17" s="22"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="39">
+      <c r="F17" s="34"/>
+      <c r="G17" s="40">
         <v>2.0</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="39">
         <v>16.0</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="39">
         <v>10.0</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="39">
         <v>10.0</v>
       </c>
       <c r="L17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="37">
+      <c r="A18" s="38">
         <v>3.0</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="39">
         <v>20.0</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="39">
         <v>15.0</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="39">
         <v>5.0</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="39">
+      <c r="F18" s="34"/>
+      <c r="G18" s="40">
         <v>3.0</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="39">
         <v>22.0</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="39">
         <v>10.0</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="39">
         <v>10.0</v>
       </c>
       <c r="L18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="37">
+      <c r="A19" s="38">
         <v>4.0</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="39">
         <v>26.0</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="39">
         <v>20.0</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="39">
         <v>0.0</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="39">
+      <c r="F19" s="34"/>
+      <c r="G19" s="40">
         <v>4.0</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="39">
         <v>20.0</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="39">
         <v>11.0</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="39">
         <v>7.0</v>
       </c>
       <c r="L19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="37">
+      <c r="A20" s="38">
         <v>5.0</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="39">
         <v>39.0</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="39">
         <v>5.0</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="39">
         <v>18.0</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="39">
+      <c r="F20" s="34"/>
+      <c r="G20" s="40">
         <v>5.0</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="39">
         <v>16.0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="39">
         <v>18.0</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="39">
         <v>3.0</v>
       </c>
       <c r="L20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="37">
+      <c r="A21" s="38">
         <v>6.0</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="39">
         <v>34.0</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="39">
         <v>9.0</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="39">
         <v>12.0</v>
       </c>
       <c r="E21" s="22"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="39">
+      <c r="F21" s="34"/>
+      <c r="G21" s="40">
         <v>6.0</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="39">
         <v>24.0</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="39">
         <v>19.0</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="39">
         <v>0.0</v>
       </c>
       <c r="L21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="37">
+      <c r="A22" s="38">
         <v>7.0</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="39">
         <v>23.0</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="39">
         <v>10.0</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="39">
         <v>10.0</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="39">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <v>7.0</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="39">
         <v>26.0</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="39">
         <v>10.0</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="39">
         <v>10.0</v>
       </c>
       <c r="L22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="37">
+      <c r="A23" s="38">
         <v>8.0</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="39">
         <v>22.0</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="39">
         <v>8.0</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="39">
         <v>13.0</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="39">
+      <c r="F23" s="34"/>
+      <c r="G23" s="40">
         <v>8.0</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="39">
         <v>22.0</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="39">
         <v>16.0</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="39">
         <v>4.0</v>
       </c>
       <c r="L23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="40">
         <f t="shared" ref="B24:D24" si="3">AVERAGE(B16:B23)</f>
         <v>25</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="40">
         <f t="shared" si="3"/>
         <v>12.375</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="40">
         <f t="shared" si="3"/>
         <v>8.625</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="34"/>
+      <c r="G24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="40">
         <f t="shared" ref="H24:J24" si="4">AVERAGE(H16:H23)</f>
         <v>20.125</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="40">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="40">
         <f t="shared" si="4"/>
         <v>6.375</v>
       </c>
@@ -5325,8 +7159,8 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="s">
-        <v>47</v>
+      <c r="A26" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -5337,13 +7171,13 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>8</v>
@@ -5367,7 +7201,7 @@
       <c r="A30" s="26">
         <v>2.0</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="45">
         <v>25.0</v>
       </c>
       <c r="C30" s="26">
@@ -5403,6 +7237,90 @@
       </c>
       <c r="D32" s="26">
         <v>6.375</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" ref="B38:B40" si="5"> 20.125/B30</f>
+        <v>0.805</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" ref="C38:C40" si="6">C30/13.625</f>
+        <v>0.9082568807</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" ref="D38:D40" si="7"> 7/D30</f>
+        <v>0.8115942029</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="5"/>
+        <v>0.8341968912</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="6"/>
+        <v>0.8623853211</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="7"/>
+        <v>0.8115942029</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="6"/>
+        <v>0.9908256881</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="7"/>
+        <v>1.098039216</v>
       </c>
     </row>
   </sheetData>
